--- a/templates/RIS-Template-A4.xlsx
+++ b/templates/RIS-Template-A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\.DEV\Inventory - TESDA\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65544D48-6592-4F4E-A870-8E9AC076F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37782038-7298-4242-B5D2-0C53D97DB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57EBF890-A4A6-4128-A4E4-ADE2661C1D38}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">Division :  </t>
   </si>
   <si>
-    <t>Responsibility Center Code :MOOE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office :   </t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Received by:</t>
+  </si>
+  <si>
+    <t>Responsibility Center Code:</t>
   </si>
 </sst>
 </file>
@@ -397,13 +397,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,53 +456,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -769,19 +769,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10411FD8-1B79-47E0-B397-0021E4DAE10E}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
     <col min="9" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="36.140625" style="2" customWidth="1"/>
@@ -789,22 +789,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -828,7 +828,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -836,7 +836,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -850,85 +850,85 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="G8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
+      <c r="H9" s="58"/>
+      <c r="K9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="K9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,120 +1053,120 @@
     </row>
     <row r="23" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="50" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="54"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="36"/>
       <c r="J26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="33"/>
       <c r="K27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="33"/>
       <c r="J28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:12" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -1214,16 +1214,16 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
       <c r="K38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="J39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,75 +1348,92 @@
     </row>
     <row r="52" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
       <c r="J55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
       <c r="K56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
       <c r="J57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -1433,22 +1450,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23999999999999996" right="0.1" top="0.21" bottom="0.2" header="0.3" footer="0.3"/>
